--- a/mapping_schemes/west/BFA_RES.xlsx
+++ b/mapping_schemes/west/BFA_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/West/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C2783-3A2C-4B41-AC3C-FB2E48F5AEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E69FE-A184-8340-9099-252F1964AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="12880" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="90">
   <si>
     <t>MATO</t>
   </si>
@@ -3283,10 +3283,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3321,7 +3321,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3335,49 +3335,49 @@
         <v>36</v>
       </c>
       <c r="D3" s="20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D5" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.8</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3388,10 +3388,10 @@
         <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3402,7 +3402,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0.1</v>
@@ -3410,55 +3410,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3466,83 +3466,83 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3550,13 +3550,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -3564,13 +3564,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3578,45 +3578,81 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
     </row>
@@ -3626,17 +3662,17 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
     </row>
@@ -3646,7 +3682,7 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
     </row>
@@ -3744,31 +3780,27 @@
       <c r="A52" s="10"/>
       <c r="B52" s="5"/>
       <c r="C52" s="3"/>
-      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
-      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="5"/>
       <c r="C54" s="3"/>
-      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
-      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="5"/>
       <c r="C56" s="3"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
@@ -3792,21 +3824,25 @@
       <c r="A60" s="10"/>
       <c r="B60" s="5"/>
       <c r="C60" s="3"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
@@ -3839,38 +3875,39 @@
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
@@ -3890,7 +3927,6 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
@@ -3931,6 +3967,26 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3942,7 +3998,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
